--- a/data_output/assim_data.xlsx
+++ b/data_output/assim_data.xlsx
@@ -411,16 +411,16 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.7759980948123544</v>
+        <v>0.7612103111456762</v>
       </c>
       <c r="E2">
-        <v>0.01650511586820273</v>
+        <v>0.01474641840160895</v>
       </c>
       <c r="F2">
-        <v>47.01561025132349</v>
+        <v>51.62001310519047</v>
       </c>
       <c r="G2">
-        <v>1.782798468934897e-97</v>
+        <v>1.984390194731821e-109</v>
       </c>
     </row>
     <row r="3">
@@ -431,7 +431,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M. NSHQ14</t>
+          <t>M. NSHQ04</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -469,16 +469,16 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.3172285271863043</v>
+        <v>0.2903394321594132</v>
       </c>
       <c r="E4">
-        <v>0.009305959011900615</v>
+        <v>0.009392431336834945</v>
       </c>
       <c r="F4">
-        <v>34.0887518181229</v>
+        <v>30.91206331429531</v>
       </c>
       <c r="G4">
-        <v>1.334800126833442e-76</v>
+        <v>1.084376751641091e-73</v>
       </c>
     </row>
     <row r="5">
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M. NSHQ14</t>
+          <t>M. NSHQ04</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
